--- a/patient_data/patient_6.xlsx
+++ b/patient_data/patient_6.xlsx
@@ -554,16 +554,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -631,16 +631,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2088,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
